--- a/spec/ConvSpec-240,X30-UnifTitle-v1.6.xlsx
+++ b/spec/ConvSpec-240,X30-UnifTitle-v1.6.xlsx
@@ -256,18 +256,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -297,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -321,9 +315,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,7 +689,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -748,10 +739,10 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -779,10 +770,10 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
